--- a/desc_table.xlsx
+++ b/desc_table.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlphilip/Dropbox/10. Semester/Social Data Science/three_drengz/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EBD6B8-699E-EF4B-8558-0AE553C1E39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="27900" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>Age</t>
   </si>
@@ -188,13 +194,25 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,26 +260,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -303,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -335,9 +376,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,6 +428,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,14 +621,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AY62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,7 +788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
@@ -858,42 +943,42 @@
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B3">
-        <v>24.16588785046729</v>
+        <v>24.165887850467289</v>
       </c>
       <c r="C3">
-        <v>22.78738317757009</v>
+        <v>22.787383177570089</v>
       </c>
       <c r="D3">
-        <v>19.05373831775701</v>
+        <v>19.053738317757009</v>
       </c>
       <c r="E3">
-        <v>1703.521028037383</v>
+        <v>1703.5210280373831</v>
       </c>
       <c r="F3">
-        <v>18.92873831775701</v>
+        <v>18.928738317757009</v>
       </c>
       <c r="G3">
-        <v>2.644859813084112</v>
+        <v>2.6448598130841119</v>
       </c>
       <c r="H3">
         <v>1.815420560747663</v>
       </c>
       <c r="I3">
-        <v>2.378504672897196</v>
+        <v>2.3785046728971961</v>
       </c>
       <c r="J3">
-        <v>0.2663551401869159</v>
+        <v>0.26635514018691592</v>
       </c>
       <c r="K3">
-        <v>0.3411214953271028</v>
+        <v>0.34112149532710279</v>
       </c>
       <c r="L3">
-        <v>3.189252336448598</v>
+        <v>3.1892523364485981</v>
       </c>
       <c r="M3">
         <v>0.1331775700934579</v>
@@ -902,31 +987,31 @@
         <v>0.227429906542056</v>
       </c>
       <c r="O3">
-        <v>0.2170560747663551</v>
+        <v>0.21705607476635511</v>
       </c>
       <c r="P3">
-        <v>2.601168224299066</v>
+        <v>2.6011682242990659</v>
       </c>
       <c r="Q3">
-        <v>2.337383177570093</v>
+        <v>2.3373831775700928</v>
       </c>
       <c r="R3">
         <v>1.695560747663553</v>
       </c>
       <c r="S3">
-        <v>4.036448598130844</v>
+        <v>4.0364485981308436</v>
       </c>
       <c r="T3">
-        <v>0.230210280373832</v>
+        <v>0.23021028037383201</v>
       </c>
       <c r="U3">
         <v>2018.35046728972</v>
       </c>
       <c r="V3">
-        <v>659.8457943925233</v>
+        <v>659.84579439252332</v>
       </c>
       <c r="W3">
-        <v>836.5303738317757</v>
+        <v>836.53037383177571</v>
       </c>
       <c r="X3">
         <v>77.59178403755871</v>
@@ -935,28 +1020,28 @@
         <v>13113.05841121495</v>
       </c>
       <c r="Z3">
-        <v>4553.976635514019</v>
+        <v>4553.9766355140191</v>
       </c>
       <c r="AA3">
         <v>0.119859813084112</v>
       </c>
       <c r="AB3">
-        <v>16.47897196261682</v>
+        <v>16.478971962616821</v>
       </c>
       <c r="AC3">
-        <v>50.29906542056074</v>
+        <v>50.299065420560737</v>
       </c>
       <c r="AD3">
-        <v>14.36448598130841</v>
+        <v>14.364485981308411</v>
       </c>
       <c r="AE3">
-        <v>4.004672897196262</v>
+        <v>4.0046728971962624</v>
       </c>
       <c r="AF3">
-        <v>58.11682242990654</v>
+        <v>58.116822429906541</v>
       </c>
       <c r="AG3">
-        <v>28.91822429906542</v>
+        <v>28.918224299065422</v>
       </c>
       <c r="AH3">
         <v>18.36214953271028</v>
@@ -968,93 +1053,93 @@
         <v>11.14953271028037</v>
       </c>
       <c r="AK3">
-        <v>3.61214953271028</v>
+        <v>3.6121495327102799</v>
       </c>
       <c r="AL3">
         <v>32.15336658354115</v>
       </c>
       <c r="AM3">
-        <v>17.58177570093458</v>
+        <v>17.581775700934578</v>
       </c>
       <c r="AN3">
-        <v>265.0257009345794</v>
+        <v>265.02570093457939</v>
       </c>
       <c r="AO3">
-        <v>74.20327102803738</v>
+        <v>74.203271028037378</v>
       </c>
       <c r="AP3">
-        <v>27.83571428571433</v>
+        <v>27.835714285714332</v>
       </c>
       <c r="AQ3">
-        <v>25.33878504672897</v>
+        <v>25.338785046728969</v>
       </c>
       <c r="AR3">
-        <v>5.189252336448599</v>
+        <v>5.1892523364485994</v>
       </c>
       <c r="AS3">
-        <v>0.09579439252336448</v>
+        <v>9.5794392523364483E-2</v>
       </c>
       <c r="AT3">
-        <v>20.14953271028037</v>
+        <v>20.149532710280369</v>
       </c>
       <c r="AU3">
         <v>15.99532710280374</v>
       </c>
       <c r="AV3">
-        <v>44.91355140186916</v>
+        <v>44.913551401869157</v>
       </c>
       <c r="AW3">
-        <v>35.69626168224299</v>
+        <v>35.696261682242991</v>
       </c>
       <c r="AX3">
-        <v>0.4205607476635514</v>
+        <v>0.42056074766355139</v>
       </c>
       <c r="AY3">
-        <v>15.45588785046728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51">
+        <v>15.455887850467279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B4">
-        <v>3.4584255337371</v>
+        <v>3.4584255337370999</v>
       </c>
       <c r="C4">
         <v>10.54105966227546</v>
       </c>
       <c r="D4">
-        <v>11.26077563756001</v>
+        <v>11.260775637560011</v>
       </c>
       <c r="E4">
-        <v>977.6448146600727</v>
+        <v>977.64481466007271</v>
       </c>
       <c r="F4">
-        <v>10.8633169248862</v>
+        <v>10.863316924886201</v>
       </c>
       <c r="G4">
         <v>4.033820340282726</v>
       </c>
       <c r="H4">
-        <v>2.482924460034312</v>
+        <v>2.4829244600343121</v>
       </c>
       <c r="I4">
-        <v>3.467035206304945</v>
+        <v>3.4670352063049452</v>
       </c>
       <c r="J4">
-        <v>0.8705909511700833</v>
+        <v>0.87059095117008334</v>
       </c>
       <c r="K4">
         <v>1.04712862848621</v>
       </c>
       <c r="L4">
-        <v>2.818336812822363</v>
+        <v>2.8183368128223631</v>
       </c>
       <c r="M4">
-        <v>0.3792290913920185</v>
+        <v>0.37922909139201849</v>
       </c>
       <c r="N4">
-        <v>0.2535461512488523</v>
+        <v>0.25354615124885233</v>
       </c>
       <c r="O4">
         <v>0.2411112575854546</v>
@@ -1063,16 +1148,16 @@
         <v>3.721080342197181</v>
       </c>
       <c r="Q4">
-        <v>3.165194892889524</v>
+        <v>3.1651948928895242</v>
       </c>
       <c r="R4">
-        <v>2.033237612365694</v>
+        <v>2.0332376123656939</v>
       </c>
       <c r="S4">
         <v>4.645476105625467</v>
       </c>
       <c r="T4">
-        <v>0.2129742597214566</v>
+        <v>0.21297425972145659</v>
       </c>
       <c r="U4">
         <v>1.096545466050038</v>
@@ -1081,37 +1166,37 @@
         <v>484.2869352457476</v>
       </c>
       <c r="W4">
-        <v>575.573386049655</v>
+        <v>575.57338604965503</v>
       </c>
       <c r="X4">
-        <v>8.870511788953127</v>
+        <v>8.8705117889531273</v>
       </c>
       <c r="Y4">
         <v>10262.25618394272</v>
       </c>
       <c r="Z4">
-        <v>4458.262107652498</v>
+        <v>4458.2621076524983</v>
       </c>
       <c r="AA4">
-        <v>1.180403209391555</v>
+        <v>1.1804032093915551</v>
       </c>
       <c r="AB4">
         <v>17.89893634062302</v>
       </c>
       <c r="AC4">
-        <v>50.05677618680463</v>
+        <v>50.056776186804633</v>
       </c>
       <c r="AD4">
-        <v>16.37665129682181</v>
+        <v>16.376651296821809</v>
       </c>
       <c r="AE4">
-        <v>5.80478496278559</v>
+        <v>5.8047849627855896</v>
       </c>
       <c r="AF4">
-        <v>52.84213063652216</v>
+        <v>52.842130636522157</v>
       </c>
       <c r="AG4">
-        <v>24.26001509073106</v>
+        <v>24.260015090731059</v>
       </c>
       <c r="AH4">
         <v>15.75373022422268</v>
@@ -1120,55 +1205,55 @@
         <v>13.40317971311714</v>
       </c>
       <c r="AJ4">
-        <v>10.55180483430311</v>
+        <v>10.551804834303111</v>
       </c>
       <c r="AK4">
-        <v>3.636793767178461</v>
+        <v>3.6367937671784611</v>
       </c>
       <c r="AL4">
-        <v>18.39454524819194</v>
+        <v>18.394545248191939</v>
       </c>
       <c r="AM4">
-        <v>15.58072864266057</v>
+        <v>15.580728642660571</v>
       </c>
       <c r="AN4">
-        <v>204.3051439483839</v>
+        <v>204.30514394838389</v>
       </c>
       <c r="AO4">
-        <v>55.39496919600314</v>
+        <v>55.394969196003139</v>
       </c>
       <c r="AP4">
-        <v>9.716445754715554</v>
+        <v>9.7164457547155543</v>
       </c>
       <c r="AQ4">
-        <v>19.61538110866051</v>
+        <v>19.615381108660511</v>
       </c>
       <c r="AR4">
-        <v>7.207475718395383</v>
+        <v>7.2074757183953828</v>
       </c>
       <c r="AS4">
-        <v>0.3458432653441988</v>
+        <v>0.34584326534419879</v>
       </c>
       <c r="AT4">
-        <v>16.0031049319383</v>
+        <v>16.003104931938299</v>
       </c>
       <c r="AU4">
-        <v>15.7225647190509</v>
+        <v>15.722564719050901</v>
       </c>
       <c r="AV4">
-        <v>37.78547238897212</v>
+        <v>37.785472388972117</v>
       </c>
       <c r="AW4">
-        <v>48.25480073479508</v>
+        <v>48.254800734795083</v>
       </c>
       <c r="AX4">
-        <v>0.7926758781641637</v>
+        <v>0.79267587816416374</v>
       </c>
       <c r="AY4">
         <v>17.51007825638624</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -1320,10 +1405,10 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1340,7 +1425,7 @@
         <v>885</v>
       </c>
       <c r="F6">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1394,7 +1479,7 @@
         <v>353</v>
       </c>
       <c r="X6">
-        <v>71.72499999999999</v>
+        <v>71.724999999999994</v>
       </c>
       <c r="Y6">
         <v>4593.75</v>
@@ -1478,7 +1563,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1534,7 +1619,7 @@
         <v>0.9</v>
       </c>
       <c r="S7">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="T7">
         <v>0.16</v>
@@ -1591,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="AL7">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="AM7">
         <v>13.5</v>
@@ -1633,7 +1718,7 @@
         <v>10.06</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1680,7 +1765,7 @@
         <v>0.33</v>
       </c>
       <c r="P8">
-        <v>3.225</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="Q8">
         <v>2.8</v>
@@ -1758,7 +1843,7 @@
         <v>111</v>
       </c>
       <c r="AP8">
-        <v>32.425</v>
+        <v>32.424999999999997</v>
       </c>
       <c r="AQ8">
         <v>39</v>
@@ -1788,7 +1873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>57</v>
       </c>
@@ -1941,6 +2026,1485 @@
       </c>
       <c r="AY9">
         <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5">
+        <v>24.165887850467289</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.4584255337370999</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15</v>
+      </c>
+      <c r="E13" s="6">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6">
+        <v>26.25</v>
+      </c>
+      <c r="H13" s="6">
+        <v>35</v>
+      </c>
+      <c r="I13" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5">
+        <v>22.787383177570089</v>
+      </c>
+      <c r="C14" s="5">
+        <v>10.54105966227546</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>14.75</v>
+      </c>
+      <c r="F14" s="6">
+        <v>24</v>
+      </c>
+      <c r="G14" s="6">
+        <v>32</v>
+      </c>
+      <c r="H14" s="6">
+        <v>38</v>
+      </c>
+      <c r="I14" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5">
+        <v>19.053738317757009</v>
+      </c>
+      <c r="C15" s="5">
+        <v>11.260775637560011</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6">
+        <v>29</v>
+      </c>
+      <c r="H15" s="6">
+        <v>38</v>
+      </c>
+      <c r="I15" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1703.5210280373831</v>
+      </c>
+      <c r="C16" s="5">
+        <v>977.64481466007271</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <v>885</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1692</v>
+      </c>
+      <c r="G16" s="6">
+        <v>2571.75</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3420</v>
+      </c>
+      <c r="I16" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5">
+        <v>18.928738317757009</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10.863316924886201</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F17" s="6">
+        <v>18.8</v>
+      </c>
+      <c r="G17" s="6">
+        <v>28.6</v>
+      </c>
+      <c r="H17" s="6">
+        <v>38</v>
+      </c>
+      <c r="I17" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2.6448598130841119</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4.033820340282726</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>3</v>
+      </c>
+      <c r="H18" s="6">
+        <v>29</v>
+      </c>
+      <c r="I18" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.815420560747663</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2.4829244600343121</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3</v>
+      </c>
+      <c r="H19" s="6">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2.3785046728971961</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3.4670352063049452</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6">
+        <v>23</v>
+      </c>
+      <c r="I20" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.26635514018691592</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.87059095117008334</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>6</v>
+      </c>
+      <c r="I21" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.34112149532710279</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.04712862848621</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>8</v>
+      </c>
+      <c r="I22" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3.1892523364485981</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.8183368128223631</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6">
+        <v>5</v>
+      </c>
+      <c r="H23" s="6">
+        <v>16</v>
+      </c>
+      <c r="I23" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.1331775700934579</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.37922909139201849</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.227429906542056</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.25354615124885233</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="I25" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.21705607476635511</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.2411112575854546</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1.77</v>
+      </c>
+      <c r="I26" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2.6011682242990659</v>
+      </c>
+      <c r="C27" s="5">
+        <v>3.721080342197181</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="H27" s="6">
+        <v>26.5</v>
+      </c>
+      <c r="I27" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2.3373831775700928</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3.1651948928895242</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="G28" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="H28" s="6">
+        <v>20.5</v>
+      </c>
+      <c r="I28" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1.695560747663553</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.0332376123656939</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="H29" s="6">
+        <v>10</v>
+      </c>
+      <c r="I29" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4.0364485981308436</v>
+      </c>
+      <c r="C30" s="5">
+        <v>4.645476105625467</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G30" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>25.9</v>
+      </c>
+      <c r="I30" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.23021028037383201</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.21297425972145659</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="H31" s="6">
+        <v>1.46</v>
+      </c>
+      <c r="I31" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2018.35046728972</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1.096545466050038</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2017</v>
+      </c>
+      <c r="E32" s="6">
+        <v>2017</v>
+      </c>
+      <c r="F32" s="6">
+        <v>2018</v>
+      </c>
+      <c r="G32" s="6">
+        <v>2019</v>
+      </c>
+      <c r="H32" s="6">
+        <v>2020</v>
+      </c>
+      <c r="I32" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="5">
+        <v>659.84579439252332</v>
+      </c>
+      <c r="C33" s="5">
+        <v>484.2869352457476</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>250.5</v>
+      </c>
+      <c r="F33" s="6">
+        <v>578.5</v>
+      </c>
+      <c r="G33" s="6">
+        <v>950.5</v>
+      </c>
+      <c r="H33" s="6">
+        <v>2864</v>
+      </c>
+      <c r="I33" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="5">
+        <v>836.53037383177571</v>
+      </c>
+      <c r="C34" s="5">
+        <v>575.57338604965503</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>353</v>
+      </c>
+      <c r="F34" s="6">
+        <v>768</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1218.25</v>
+      </c>
+      <c r="H34" s="6">
+        <v>3229</v>
+      </c>
+      <c r="I34" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="5">
+        <v>77.59178403755871</v>
+      </c>
+      <c r="C35" s="5">
+        <v>8.8705117889531273</v>
+      </c>
+      <c r="D35" s="6">
+        <v>42.9</v>
+      </c>
+      <c r="E35" s="6">
+        <v>71.724999999999994</v>
+      </c>
+      <c r="F35" s="6">
+        <v>78.2</v>
+      </c>
+      <c r="G35" s="6">
+        <v>83.875</v>
+      </c>
+      <c r="H35" s="6">
+        <v>100</v>
+      </c>
+      <c r="I35" s="7">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="5">
+        <v>13113.05841121495</v>
+      </c>
+      <c r="C36" s="5">
+        <v>10262.25618394272</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>4593.75</v>
+      </c>
+      <c r="F36" s="6">
+        <v>10896</v>
+      </c>
+      <c r="G36" s="6">
+        <v>19603.5</v>
+      </c>
+      <c r="H36" s="6">
+        <v>53256</v>
+      </c>
+      <c r="I36" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="5">
+        <v>4553.9766355140191</v>
+      </c>
+      <c r="C37" s="5">
+        <v>4458.2621076524983</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1159.5</v>
+      </c>
+      <c r="F37" s="6">
+        <v>3244</v>
+      </c>
+      <c r="G37" s="6">
+        <v>6322.5</v>
+      </c>
+      <c r="H37" s="6">
+        <v>23534</v>
+      </c>
+      <c r="I37" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.119859813084112</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1.1804032093915551</v>
+      </c>
+      <c r="D38" s="6">
+        <v>-4.8</v>
+      </c>
+      <c r="E38" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="H38" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="I38" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="5">
+        <v>16.478971962616821</v>
+      </c>
+      <c r="C39" s="5">
+        <v>17.89893634062302</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>3</v>
+      </c>
+      <c r="F39" s="6">
+        <v>11</v>
+      </c>
+      <c r="G39" s="6">
+        <v>24</v>
+      </c>
+      <c r="H39" s="6">
+        <v>94</v>
+      </c>
+      <c r="I39" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="5">
+        <v>50.299065420560737</v>
+      </c>
+      <c r="C40" s="5">
+        <v>50.056776186804633</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>14.75</v>
+      </c>
+      <c r="F40" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="G40" s="6">
+        <v>75.25</v>
+      </c>
+      <c r="H40" s="6">
+        <v>442</v>
+      </c>
+      <c r="I40" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="5">
+        <v>14.364485981308411</v>
+      </c>
+      <c r="C41" s="5">
+        <v>16.376651296821809</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3</v>
+      </c>
+      <c r="F41" s="6">
+        <v>9</v>
+      </c>
+      <c r="G41" s="6">
+        <v>20.25</v>
+      </c>
+      <c r="H41" s="6">
+        <v>99</v>
+      </c>
+      <c r="I41" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="5">
+        <v>4.0046728971962624</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5.8047849627855896</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6">
+        <v>5</v>
+      </c>
+      <c r="H42" s="6">
+        <v>37</v>
+      </c>
+      <c r="I42" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="5">
+        <v>58.116822429906541</v>
+      </c>
+      <c r="C43" s="5">
+        <v>52.842130636522157</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>16</v>
+      </c>
+      <c r="F43" s="6">
+        <v>47</v>
+      </c>
+      <c r="G43" s="6">
+        <v>88</v>
+      </c>
+      <c r="H43" s="6">
+        <v>316</v>
+      </c>
+      <c r="I43" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="5">
+        <v>28.918224299065422</v>
+      </c>
+      <c r="C44" s="5">
+        <v>24.260015090731059</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>9</v>
+      </c>
+      <c r="F44" s="6">
+        <v>25</v>
+      </c>
+      <c r="G44" s="6">
+        <v>43</v>
+      </c>
+      <c r="H44" s="6">
+        <v>140</v>
+      </c>
+      <c r="I44" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="5">
+        <v>18.36214953271028</v>
+      </c>
+      <c r="C45" s="5">
+        <v>15.75373022422268</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>5</v>
+      </c>
+      <c r="F45" s="6">
+        <v>15</v>
+      </c>
+      <c r="G45" s="6">
+        <v>28</v>
+      </c>
+      <c r="H45" s="6">
+        <v>73</v>
+      </c>
+      <c r="I45" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="5">
+        <v>14.15654205607477</v>
+      </c>
+      <c r="C46" s="5">
+        <v>13.40317971311714</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
+        <v>3</v>
+      </c>
+      <c r="F46" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="G46" s="6">
+        <v>22.25</v>
+      </c>
+      <c r="H46" s="6">
+        <v>102</v>
+      </c>
+      <c r="I46" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="5">
+        <v>11.14953271028037</v>
+      </c>
+      <c r="C47" s="5">
+        <v>10.551804834303111</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>3</v>
+      </c>
+      <c r="F47" s="6">
+        <v>9</v>
+      </c>
+      <c r="G47" s="6">
+        <v>16</v>
+      </c>
+      <c r="H47" s="6">
+        <v>53</v>
+      </c>
+      <c r="I47" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="5">
+        <v>3.6121495327102799</v>
+      </c>
+      <c r="C48" s="5">
+        <v>3.6367937671784611</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
+        <v>2</v>
+      </c>
+      <c r="G48" s="6">
+        <v>6</v>
+      </c>
+      <c r="H48" s="6">
+        <v>23</v>
+      </c>
+      <c r="I48" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="5">
+        <v>32.15336658354115</v>
+      </c>
+      <c r="C49" s="5">
+        <v>18.394545248191939</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="F49" s="6">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G49" s="6">
+        <v>44</v>
+      </c>
+      <c r="H49" s="6">
+        <v>100</v>
+      </c>
+      <c r="I49" s="7">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="5">
+        <v>17.581775700934578</v>
+      </c>
+      <c r="C50" s="5">
+        <v>15.580728642660571</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>6</v>
+      </c>
+      <c r="F50" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="G50" s="6">
+        <v>25</v>
+      </c>
+      <c r="H50" s="6">
+        <v>95</v>
+      </c>
+      <c r="I50" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="5">
+        <v>265.02570093457939</v>
+      </c>
+      <c r="C51" s="5">
+        <v>204.30514394838389</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>100</v>
+      </c>
+      <c r="F51" s="6">
+        <v>225.5</v>
+      </c>
+      <c r="G51" s="6">
+        <v>393.75</v>
+      </c>
+      <c r="H51" s="6">
+        <v>953</v>
+      </c>
+      <c r="I51" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B52" s="5">
+        <v>74.203271028037378</v>
+      </c>
+      <c r="C52" s="5">
+        <v>55.394969196003139</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
+        <v>29</v>
+      </c>
+      <c r="F52" s="6">
+        <v>66</v>
+      </c>
+      <c r="G52" s="6">
+        <v>111</v>
+      </c>
+      <c r="H52" s="6">
+        <v>237</v>
+      </c>
+      <c r="I52" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="5">
+        <v>27.835714285714332</v>
+      </c>
+      <c r="C53" s="5">
+        <v>9.7164457547155543</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6">
+        <v>24</v>
+      </c>
+      <c r="F53" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="G53" s="6">
+        <v>32.424999999999997</v>
+      </c>
+      <c r="H53" s="6">
+        <v>100</v>
+      </c>
+      <c r="I53" s="7">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="5">
+        <v>25.338785046728969</v>
+      </c>
+      <c r="C54" s="5">
+        <v>19.615381108660511</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6">
+        <v>8</v>
+      </c>
+      <c r="F54" s="6">
+        <v>23</v>
+      </c>
+      <c r="G54" s="6">
+        <v>39</v>
+      </c>
+      <c r="H54" s="6">
+        <v>104</v>
+      </c>
+      <c r="I54" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="5">
+        <v>5.1892523364485994</v>
+      </c>
+      <c r="C55" s="5">
+        <v>7.2074757183953828</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6">
+        <v>2</v>
+      </c>
+      <c r="G55" s="6">
+        <v>7</v>
+      </c>
+      <c r="H55" s="6">
+        <v>39</v>
+      </c>
+      <c r="I55" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="5">
+        <v>9.5794392523364483E-2</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.34584326534419879</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>2</v>
+      </c>
+      <c r="I56" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="5">
+        <v>20.149532710280369</v>
+      </c>
+      <c r="C57" s="5">
+        <v>16.003104931938299</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0</v>
+      </c>
+      <c r="E57" s="6">
+        <v>7</v>
+      </c>
+      <c r="F57" s="6">
+        <v>17</v>
+      </c>
+      <c r="G57" s="6">
+        <v>31</v>
+      </c>
+      <c r="H57" s="6">
+        <v>85</v>
+      </c>
+      <c r="I57" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="5">
+        <v>15.99532710280374</v>
+      </c>
+      <c r="C58" s="5">
+        <v>15.722564719050901</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0</v>
+      </c>
+      <c r="E58" s="6">
+        <v>4</v>
+      </c>
+      <c r="F58" s="6">
+        <v>12</v>
+      </c>
+      <c r="G58" s="6">
+        <v>24</v>
+      </c>
+      <c r="H58" s="6">
+        <v>99</v>
+      </c>
+      <c r="I58" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="5">
+        <v>44.913551401869157</v>
+      </c>
+      <c r="C59" s="5">
+        <v>37.785472388972117</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0</v>
+      </c>
+      <c r="E59" s="6">
+        <v>13.75</v>
+      </c>
+      <c r="F59" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="G59" s="6">
+        <v>66</v>
+      </c>
+      <c r="H59" s="6">
+        <v>239</v>
+      </c>
+      <c r="I59" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="5">
+        <v>35.696261682242991</v>
+      </c>
+      <c r="C60" s="5">
+        <v>48.254800734795083</v>
+      </c>
+      <c r="D60" s="6">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <v>4</v>
+      </c>
+      <c r="F60" s="6">
+        <v>16</v>
+      </c>
+      <c r="G60" s="6">
+        <v>43.25</v>
+      </c>
+      <c r="H60" s="6">
+        <v>267</v>
+      </c>
+      <c r="I60" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="5">
+        <v>0.42056074766355139</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.79267587816416374</v>
+      </c>
+      <c r="D61" s="6">
+        <v>0</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6">
+        <v>4</v>
+      </c>
+      <c r="I61" s="7">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="5">
+        <v>15.455887850467279</v>
+      </c>
+      <c r="C62" s="5">
+        <v>17.51007825638624</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E62" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F62" s="6">
+        <v>10.06</v>
+      </c>
+      <c r="G62" s="6">
+        <v>20</v>
+      </c>
+      <c r="H62" s="6">
+        <v>120</v>
+      </c>
+      <c r="I62" s="7">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/desc_table.xlsx
+++ b/desc_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlphilip/Dropbox/10. Semester/Social Data Science/three_drengz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EBD6B8-699E-EF4B-8558-0AE553C1E39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E64A5C-22DC-5741-B4F7-F11846199AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="27900" windowHeight="15020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
